--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,21 @@
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -73,9 +70,15 @@
     <t>sc</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -85,13 +88,19 @@
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
@@ -112,15 +121,12 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -133,82 +139,82 @@
     <t>better</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,16 +715,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -788,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6986301369863014</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C7">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -906,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5789473684210527</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4266666666666667</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.348993288590604</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3430232558139535</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="C12">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2751322751322751</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,16 +1215,16 @@
         <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1825396825396825</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7583333333333333</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,454 +1294,478 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1018766756032172</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>208</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L16">
+        <v>92</v>
+      </c>
+      <c r="M16">
+        <v>92</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.1126005361930295</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>331</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>335</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L16">
-        <v>38</v>
-      </c>
-      <c r="M16">
-        <v>38</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="K17">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L18">
+        <v>78</v>
+      </c>
+      <c r="M18">
+        <v>78</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L19">
+        <v>46</v>
+      </c>
+      <c r="M19">
+        <v>46</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.7</v>
+      </c>
+      <c r="L21">
+        <v>112</v>
+      </c>
+      <c r="M21">
+        <v>112</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L22">
+        <v>62</v>
+      </c>
+      <c r="M22">
+        <v>62</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L24">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="L17">
-        <v>78</v>
-      </c>
-      <c r="M17">
-        <v>78</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L18">
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M18">
+      <c r="K25">
+        <v>0.6031331592689295</v>
+      </c>
+      <c r="L25">
+        <v>231</v>
+      </c>
+      <c r="M25">
+        <v>231</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L26">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.58</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L28">
+        <v>190</v>
+      </c>
+      <c r="M28">
+        <v>190</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.5220338983050847</v>
+      </c>
+      <c r="L30">
+        <v>154</v>
+      </c>
+      <c r="M30">
+        <v>154</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="L31">
         <v>46</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.71875</v>
-      </c>
-      <c r="L19">
-        <v>115</v>
-      </c>
-      <c r="M19">
-        <v>115</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L20">
-        <v>63</v>
-      </c>
-      <c r="M20">
-        <v>63</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.6292428198433421</v>
-      </c>
-      <c r="L21">
-        <v>241</v>
-      </c>
-      <c r="M21">
-        <v>241</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.625</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
+      <c r="M31">
+        <v>46</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>43</v>
       </c>
-      <c r="K23">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.58</v>
-      </c>
-      <c r="L24">
-        <v>29</v>
-      </c>
-      <c r="M24">
-        <v>29</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>0.575</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.5676470588235294</v>
-      </c>
-      <c r="L26">
-        <v>193</v>
-      </c>
-      <c r="M26">
-        <v>193</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="L27">
-        <v>24</v>
-      </c>
-      <c r="M27">
-        <v>24</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L28">
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
         <v>20</v>
       </c>
-      <c r="M28">
+      <c r="M32">
         <v>20</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L29">
-        <v>48</v>
-      </c>
-      <c r="M29">
-        <v>48</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="L30">
-        <v>155</v>
-      </c>
-      <c r="M30">
-        <v>155</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
-        <v>0.4811715481171548</v>
-      </c>
-      <c r="L31">
-        <v>115</v>
-      </c>
-      <c r="M31">
-        <v>115</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32">
-        <v>0.4769230769230769</v>
-      </c>
-      <c r="L32">
-        <v>31</v>
-      </c>
-      <c r="M32">
-        <v>31</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -1746,21 +1776,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1772,21 +1802,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.4383561643835616</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1798,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.4375</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1824,21 +1854,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1850,21 +1880,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.3285714285714286</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1876,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.1124401913875598</v>
+        <v>0.375</v>
       </c>
       <c r="L38">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1902,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>371</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.0889423076923077</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1928,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>379</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.06040268456375839</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L40">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1954,137 +1984,163 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>840</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.04555555555555556</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L41">
         <v>41</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>859</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.03235747303543914</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>628</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.03121387283236994</v>
+        <v>0.04328523862375139</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>838</v>
+        <v>862</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.02570093457943925</v>
+        <v>0.03082671648762261</v>
       </c>
       <c r="L44">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M44">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2085</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.01514663229133097</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>3056</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46">
+        <v>0.01194318915429309</v>
+      </c>
+      <c r="L46">
+        <v>37</v>
+      </c>
+      <c r="M46">
+        <v>46</v>
+      </c>
+      <c r="N46">
+        <v>0.8</v>
+      </c>
+      <c r="O46">
+        <v>0.2</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>3061</v>
       </c>
     </row>
   </sheetData>
